--- a/data/trans_dic/P0901-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P0901-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>2,89%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,79</t>
+          <t>0,48; 5,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 9,13</t>
+          <t>1,56; 8,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,53</t>
+          <t>1,28; 5,33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>5,84%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,47; 10,86</t>
+          <t>4,55; 10,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,69</t>
+          <t>2,71; 7,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,45; 8,16</t>
+          <t>3,97; 7,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>9,41%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 11,18</t>
+          <t>5,81; 11,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,48; 13,02</t>
+          <t>8,47; 12,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,87; 11,34</t>
+          <t>7,76; 11,26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>12,49%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,25; 15,72</t>
+          <t>4,04; 14,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,04; 19,58</t>
+          <t>13,06; 18,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,5; 16,83</t>
+          <t>7,49; 15,38</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>22,42%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,4; 23,78</t>
+          <t>17,35; 23,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,9; 27,05</t>
+          <t>21,8; 26,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,31; 24,87</t>
+          <t>20,29; 24,79</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>25,8%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>35,93%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>27,4%</t>
+          <t>19,2%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>17,72%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>33,74%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>51,36%</t>
+          <t>39,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>48,24%</t>
+          <t>37,98%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>38,79%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>33,66%</t>
+          <t>26,65%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>44,73%</t>
+          <t>33,37%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>29,16%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>33,36%</t>
+          <t>18,92%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,42; 29,91</t>
+          <t>14,34; 23,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>31,9; 40,0</t>
+          <t>21,12; 32,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,68; 30,99</t>
+          <t>15,06; 23,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,49; 28,1</t>
+          <t>14,63; 21,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>35,88; 43,41</t>
+          <t>28,94; 39,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>47,98; 55,12</t>
+          <t>34,04; 44,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>44,02; 51,98</t>
+          <t>32,8; 43,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,86; 44,24</t>
+          <t>7,0; 30,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>30,91; 36,32</t>
+          <t>23,33; 30,01</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>41,81; 47,56</t>
+          <t>29,96; 37,26</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>36,57; 41,91</t>
+          <t>25,84; 32,96</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>26,93; 36,44</t>
+          <t>8,11; 24,67</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>36,2%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>47,91%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>38,08%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>35,19%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>45,4%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>62,06%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>57,93%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>55,87%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>41,85%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>56,53%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>50,17%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>47,62%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>30,1; 42,52</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>41,42; 54,67</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>32,81; 43,76</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>30,68; 40,18</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>39,34; 50,63</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>56,58; 67,3</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>52,23; 63,27</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>52,47; 59,34</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>37,74; 46,29</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>52,18; 60,87</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>45,84; 54,63</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>44,85; 50,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9,05%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10,48%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>12,98%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>16,34%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>20,88%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>19,45%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>19,07%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>12,75%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>16,52%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>15,06%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>16,11%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>8,13; 10,14</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>10,88; 13,36</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>9,42; 11,61</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>12,83; 15,39</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>10,1; 14,58</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>15,08; 17,67</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>19,51; 22,31</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>17,92; 20,93</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>18,37; 21,62</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>16,04; 20,88</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>11,95; 13,55</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>15,63; 17,44</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>14,07; 15,95</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>16,17; 18,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>13,97; 17,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P0901-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P0901-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,87</t>
+          <t>1,89; 4,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 6,53</t>
+          <t>2,39; 6,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,0</t>
+          <t>0,91; 3,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 5,9</t>
+          <t>0,47; 6,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,39; 7,33</t>
+          <t>3,47; 7,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,03</t>
+          <t>3,0; 7,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 5,54</t>
+          <t>1,94; 5,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 8,42</t>
+          <t>1,61; 9,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 5,75</t>
+          <t>3,14; 5,42</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 6,0</t>
+          <t>3,12; 6,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,96</t>
+          <t>1,78; 4,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 5,33</t>
+          <t>1,32; 5,53</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,55</t>
+          <t>1,96; 4,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,16</t>
+          <t>2,25; 5,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 6,47</t>
+          <t>2,94; 6,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,55; 10,86</t>
+          <t>4,65; 10,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,16; 10,54</t>
+          <t>6,01; 10,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 7,07</t>
+          <t>3,46; 7,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,22; 8,21</t>
+          <t>4,3; 8,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,28</t>
+          <t>2,35; 7,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,31; 6,93</t>
+          <t>4,24; 6,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 5,45</t>
+          <t>3,13; 5,45</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 6,74</t>
+          <t>4,03; 6,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,96</t>
+          <t>4,15; 7,85</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 6,9</t>
+          <t>3,37; 6,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 8,92</t>
+          <t>4,72; 8,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 5,9</t>
+          <t>2,89; 6,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 11,03</t>
+          <t>5,9; 10,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,17; 11,57</t>
+          <t>7,15; 11,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,28; 14,58</t>
+          <t>9,5; 14,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,85; 11,38</t>
+          <t>6,93; 11,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,47; 12,91</t>
+          <t>8,61; 12,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,7; 8,59</t>
+          <t>5,82; 8,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,71; 10,86</t>
+          <t>7,75; 11,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 8,23</t>
+          <t>5,21; 8,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,76; 11,26</t>
+          <t>7,84; 11,41</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,72</t>
+          <t>5,0; 9,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,77; 11,48</t>
+          <t>6,67; 11,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,24; 13,1</t>
+          <t>7,94; 13,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,04; 14,3</t>
+          <t>4,24; 14,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,22; 17,37</t>
+          <t>11,35; 17,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,66; 18,95</t>
+          <t>12,97; 18,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,83; 16,24</t>
+          <t>10,98; 16,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,06; 18,68</t>
+          <t>13,35; 18,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,83; 12,72</t>
+          <t>9,0; 12,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,42; 14,13</t>
+          <t>10,34; 14,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,07; 14,01</t>
+          <t>10,11; 13,7</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,49; 15,38</t>
+          <t>7,13; 15,38</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,32; 19,49</t>
+          <t>12,37; 19,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,07; 20,08</t>
+          <t>12,79; 20,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,98; 16,76</t>
+          <t>10,52; 17,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,35; 23,76</t>
+          <t>17,2; 23,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,51; 22,0</t>
+          <t>14,52; 22,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,1; 33,86</t>
+          <t>24,42; 33,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,35; 28,16</t>
+          <t>20,57; 28,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,8; 26,9</t>
+          <t>21,72; 27,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,5; 19,53</t>
+          <t>14,57; 19,82</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,14; 25,95</t>
+          <t>20,09; 25,96</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,31; 21,55</t>
+          <t>16,29; 21,97</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,29; 24,79</t>
+          <t>20,29; 24,68</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,34; 23,33</t>
+          <t>14,1; 23,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,12; 32,26</t>
+          <t>21,71; 32,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,06; 23,29</t>
+          <t>15,12; 23,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,63; 21,25</t>
+          <t>14,49; 20,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,94; 39,27</t>
+          <t>28,91; 38,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,04; 44,76</t>
+          <t>34,46; 45,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>32,8; 43,19</t>
+          <t>33,3; 43,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,0; 30,53</t>
+          <t>8,02; 30,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,33; 30,01</t>
+          <t>23,39; 30,14</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>29,96; 37,26</t>
+          <t>29,74; 37,46</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>25,84; 32,96</t>
+          <t>25,85; 32,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,11; 24,67</t>
+          <t>9,88; 24,73</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>30,1; 42,52</t>
+          <t>29,57; 42,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>41,42; 54,67</t>
+          <t>41,44; 54,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>32,81; 43,76</t>
+          <t>32,55; 43,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,68; 40,18</t>
+          <t>30,54; 40,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>39,34; 50,63</t>
+          <t>39,55; 51,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>56,58; 67,3</t>
+          <t>57,13; 67,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>52,23; 63,27</t>
+          <t>52,22; 63,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>52,47; 59,34</t>
+          <t>52,5; 59,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>37,74; 46,29</t>
+          <t>37,23; 46,57</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>52,18; 60,87</t>
+          <t>52,42; 60,54</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>45,84; 54,63</t>
+          <t>46,26; 54,58</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>44,85; 50,53</t>
+          <t>44,85; 50,36</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,13; 10,14</t>
+          <t>8,07; 10,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,88; 13,36</t>
+          <t>11,01; 13,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,42; 11,61</t>
+          <t>9,49; 11,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>10,1; 14,58</t>
+          <t>10,31; 14,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,08; 17,67</t>
+          <t>15,01; 17,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>19,51; 22,31</t>
+          <t>19,46; 22,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,92; 20,93</t>
+          <t>18,1; 20,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,04; 20,88</t>
+          <t>15,27; 20,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,95; 13,55</t>
+          <t>11,96; 13,66</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>15,63; 17,44</t>
+          <t>15,63; 17,46</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>14,07; 15,95</t>
+          <t>14,15; 15,96</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,97; 17,5</t>
+          <t>14,09; 17,3</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que hizo menos de lo que hubiera querido por problemas físicos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15402</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18371</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8686</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>8388</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>24256</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>20208</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12977</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12241</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>39658</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>38579</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>21663</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>20628</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>9334; 24627</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10858; 27671</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3823; 16448</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1882; 25025</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>16220; 35731</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12902; 31108</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7687; 22699</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5028; 28403</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>30151; 52154</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>27588; 53552</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14482; 33230</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9404; 39470</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>22482</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>23985</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>26181</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>30470</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>51508</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>30206</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>34410</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>24072</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>73990</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>54191</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>60591</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>54542</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14426; 33811</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>15477; 35573</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>17344; 37853</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>19687; 45722</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>37578; 65017</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>21098; 42823</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>24244; 46913</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>12013; 37029</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>57725; 92873</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>40621; 70747</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>46516; 77717</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>38800; 73316</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>31088</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>43984</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>28604</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>43889</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>63111</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>84137</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>58922</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>57603</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>94199</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>128121</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>87527</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>101492</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>21540; 43523</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>32160; 58374</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19324; 41217</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>31632; 58538</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>49310; 80017</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>67518; 104008</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>45822; 75038</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>46698; 70204</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>77378; 114631</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>107939; 153699</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>69335; 108824</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>84574; 123071</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>37291</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>54344</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>66879</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>86878</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>73261</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>96478</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>86723</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>112849</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>110552</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>150822</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>153602</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>199726</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>25963; 50704</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>40965; 71800</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>51325; 84533</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>37627; 130443</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>58504; 90661</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>79893; 116319</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>71255; 107371</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>95062; 134881</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>93153; 132461</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>127230; 176202</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>130985; 177452</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>113971; 245969</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>60528</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>69579</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>63304</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>114630</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>72693</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>130320</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>120976</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>134057</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>133221</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>199899</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>184280</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>248687</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>47840; 77163</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>54943; 86490</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>50263; 82654</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>96543; 133842</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>58679; 89304</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>109333; 149874</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>102179; 143683</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>118991; 149198</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>115165; 156733</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>176255; 227690</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>158817; 214113</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>225038; 273789</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>53656</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>81355</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>64185</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>65149</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>115713</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>140173</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>143483</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>119537</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>169369</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>221527</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>207668</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>184686</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>41261; 68064</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>67245; 100804</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>50563; 79312</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>53248; 76954</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>99142; 132154</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>121983; 161228</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>125804; 166010</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>48819; 186301</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>148643; 191527</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>197382; 248623</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>184075; 233702</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>96404; 241358</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>75970</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>119707</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>97860</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>99316</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>151592</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>241393</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>231827</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>237673</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>227562</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>361100</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>329687</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>336990</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>62060; 89203</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>103550; 136215</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>83659; 112650</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>86206; 113174</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>132076; 170323</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>222230; 261352</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>208962; 252980</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>223349; 253383</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>202481; 253249</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>334867; 386776</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>304013; 358668</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>317401; 356389</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1264</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1062</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>942</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1790</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>296417</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>411325</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>355699</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>448719</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>552134</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>742915</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>689319</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>698033</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>848551</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1154239</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1045018</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1146752</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>264385; 331126</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>377124; 452238</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>322135; 392663</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>356462; 503192</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>507095; 596362</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>692353; 785922</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>641640; 740543</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>559095; 760672</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>795998; 909314</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1091513; 1219392</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>981712; 1107494</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1003297; 1231605</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>